--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1244.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1244.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.576479903069795</v>
+        <v>1.210360884666443</v>
       </c>
       <c r="B1">
-        <v>3.282087634149297</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>1.60678882131767</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.078122964460893</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>0.8938388673843994</v>
+        <v>1.201556444168091</v>
       </c>
     </row>
   </sheetData>
